--- a/メモ/脆弱性診断_owasp zap/OWASP_結果.xlsx
+++ b/メモ/脆弱性診断_owasp zap/OWASP_結果.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/watanabe_touya/Documents/その他/学習用/oldwsa/メモ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/watanabe_touya/Documents/その他/学習用/oldwsa/メモ/脆弱性診断_owasp zap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7AF26E-AA42-EC48-BE2C-22FDE86DCE44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81523B6-0C37-DA41-9628-78D9A914012C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{7B4F3DC5-021D-D246-95EC-1A42473720A1}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" xr2:uid="{7B4F3DC5-021D-D246-95EC-1A42473720A1}"/>
   </bookViews>
   <sheets>
-    <sheet name="脆弱性攻撃_結果" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="結果(1回目)" sheetId="1" r:id="rId1"/>
+    <sheet name="対策内容" sheetId="2" r:id="rId2"/>
+    <sheet name="外部読み込みファイル" sheetId="4" r:id="rId3"/>
+    <sheet name="ヘッダー設定後" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -65,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="140">
   <si>
     <t>リスク</t>
     <phoneticPr fontId="1"/>
@@ -137,9 +139,6 @@
   <si>
     <t>Low</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>XSRF-TOKEN</t>
   </si>
   <si>
     <t>https://owasp.org/www-community/HttpOnly</t>
@@ -613,21 +612,380 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>対策</t>
-    <rPh sb="0" eb="2">
-      <t>タイサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>？</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>全ディレクトリから削除
 find . -type f -name ".DS_Store" -print | xargs rm -f</t>
     <rPh sb="0" eb="1">
       <t>ゼn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>恒久対策</t>
+    <rPh sb="0" eb="2">
+      <t>コウキュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>暫定対策</t>
+    <rPh sb="0" eb="2">
+      <t>ザンテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GET http://localhost/latest/meta-data/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nginxで発生するパストラバーサル（エイリアストラバーサル)
+https://yamory.io/blog/about_path_traversal_attack/#%E3%83%91%E3%82%B9%E3%83%88%E3%83%A9%E3%83%90%E3%83%BC%E3%82%B5%E3%83%AB%E3%81%A8%E3%81%AF%EF%BC%9F</t>
+    <rPh sb="6" eb="8">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外部よりboostrapのcss及びjquery等を読み込んでいるため、内部へ配置できるか確認</t>
+    <rPh sb="0" eb="2">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オヨビ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ヨミ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ハイティ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>カクニn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現状(指摘理由)</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>シテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>macで自動保存されていた</t>
+    <rPh sb="4" eb="8">
+      <t>ジドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネットワークドライブ内のディレクトリで生成させないように以下のコマンドを実行
+defaults write com.apple.desktopservices DSDontWriteNetworkStores True</t>
+    <rPh sb="19" eb="21">
+      <t>セイセイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Owaspからの解決方法</t>
+    <rPh sb="8" eb="12">
+      <t>カイケテゥ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進捗</t>
+    <rPh sb="0" eb="2">
+      <t>シンチョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実施なし</t>
+    <rPh sb="0" eb="2">
+      <t>ジッセィ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>済み</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">スミ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://cdn.jsdelivr.net/npm/bootstrap@4.6.2/dist/css/bootstrap.min.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>boostrap</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サービス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル形式</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://cdnjs.cloudflare.com/ajax/libs/popper.js/1.16.0/umd/popper.min.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://maxcdn.bootstrapcdn.com/bootstrap/4.5.0/js/bootstrap.min.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ajax</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>用途</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタイル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドロップダウンリスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナビゲーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>frame、iframeを使った表示を行なっていないため、middlewareでアプリケーションサイト全体に以下の設定を追加
+'X-FRAME-OPTIONS', 'DENY'</t>
+    <rPh sb="13" eb="14">
+      <t>ツカッタ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XSRF-TOKEN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実施なし</t>
+    <rPh sb="0" eb="1">
+      <t>ジッセィ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>XSRF-TOKENへのhttp_onlyは実施しない
+・アプリケーションのフォーム用クッキーに対しては、http_only: trueで設定されている
+・httpsのスキーマ時にsecure属性が付与されていることも確認済み</t>
+    <rPh sb="22" eb="24">
+      <t>ジッセィ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>フヨ</t>
+    </rPh>
+    <rPh sb="109" eb="112">
+      <t>カクニn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>middleware内で、使用している画像、css、jsの読み込み先を指定してcspを追加設定(全ルートへ展開)
+csp設定値↓
+default-src 'self';
+style-src 'self' 'unsafe-inline' cdn.jsdelivr.net;
+img-src 'self' data:;
+script-src 'self' 'unsafe-inline' ajax.googleapis.com cdnjs.cloudflare.com maxcdn.bootstrapcdn.com;</t>
+    <rPh sb="10" eb="11">
+      <t>ナイデ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ヨミ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="43" eb="47">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ゼn</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>テンカイ</t>
+    </rPh>
+    <rPh sb="61" eb="64">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>csp設定を追加</t>
+    <rPh sb="3" eb="5">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>php.iniでの設定を修正
+expose_php = Off
+※AWSへの設定反映が漏れているため修正する</t>
+    <rPh sb="9" eb="11">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>httpd.confファイルへ以下の設定を追記
+ServerTokens ProductOnly
+ServerSignature off
+※AWSへの設定反映が漏れているため修正する</t>
+    <rPh sb="15" eb="17">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対応なし</t>
+    <rPh sb="0" eb="2">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>laravelのmiddleware中で以下の設定を追加
+X-Content-Type-Options = nosniff</t>
+    <rPh sb="18" eb="19">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イカノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HTMLソース上に不要なコメントがあったため削除</t>
+    <rPh sb="22" eb="24">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS設定後</t>
+    <rPh sb="3" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ローカル設定後</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイムスタンプの露見 - Unix</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実際のURLは、以下でタイムスタンプではなくclient_idであるため対応しない
+https://access.line.me/oauth2/v2.1/authorize/consent?client_id=1656966250&amp;redirect_uri=http%3A%2F%2Flocalhost%2Fline%2Flogin%2Fcallback&amp;scope=openid+profile+email&amp;response_type=code&amp;state=53eYRd4QjG5C8NPbhttCsVE0Wl0FaYJcANU7lkLE</t>
+    <rPh sb="0" eb="2">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イカデ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・現状、WebサーバーはApacheでの構成であり、リバースプロキシは使用していないため対策は実施なし
+・現状のAWSでも同様の設定はなし
+https://www.nginx.com/blog/trust-no-one-perils-of-trusting-user-input/</t>
+    <rPh sb="1" eb="3">
+      <t>ゲンジョウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>タイサク</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ゲンジョウ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ドウヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -636,7 +994,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -666,8 +1024,17 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -677,6 +1044,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,8 +1078,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -738,14 +1114,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -759,6 +1136,148 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1333500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2895600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2864906</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8972532F-18AC-5840-9881-D8E936B54DCF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16637000" y="14554200"/>
+          <a:ext cx="2857500" cy="1531406"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>879282</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14E80D79-9132-884E-80D1-EE98973F5598}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952500" y="254000"/>
+          <a:ext cx="11356782" cy="5892800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>873010</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68A366E4-7A88-1F49-9870-5284DEDCA43B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952500" y="6858000"/>
+          <a:ext cx="11350510" cy="5245100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1102,24 +1621,24 @@
   <sheetData>
     <row r="2" spans="2:10" ht="35">
       <c r="B2" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="40" customHeight="1">
       <c r="B3" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>11</v>
@@ -1139,59 +1658,61 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="G4" s="4"/>
       <c r="H4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="294">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="286" customHeight="1">
       <c r="B5" s="7">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="189">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="168">
       <c r="B6" s="7">
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>5</v>
@@ -1199,37 +1720,41 @@
       <c r="E6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="399">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="357">
       <c r="B7" s="7">
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="G7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>7</v>
@@ -1243,22 +1768,24 @@
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="315">
@@ -1266,24 +1793,26 @@
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="G9" s="3" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="133" customHeight="1">
@@ -1291,10 +1820,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>13</v>
@@ -1303,14 +1832,14 @@
         <v>1</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="336">
@@ -1318,10 +1847,10 @@
         <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>13</v>
@@ -1331,10 +1860,10 @@
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J11" s="3"/>
     </row>
@@ -1343,26 +1872,26 @@
         <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="315">
@@ -1370,10 +1899,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>13</v>
@@ -1382,16 +1911,16 @@
         <v>1</v>
       </c>
       <c r="G13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="143" customHeight="1">
@@ -1399,24 +1928,26 @@
         <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="105">
@@ -1424,24 +1955,24 @@
         <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="2:10" ht="147">
@@ -1449,22 +1980,22 @@
         <v>13</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="105">
@@ -1472,21 +2003,23 @@
         <v>14</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J17" s="4"/>
     </row>
@@ -1495,24 +2028,26 @@
         <v>15</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="19" spans="2:10">
@@ -1844,434 +2379,786 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E198FB8-0BD8-D64C-A455-F81B44025496}">
-  <dimension ref="B2:F50"/>
+  <dimension ref="B2:J50"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="42.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="52.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="64" style="1" customWidth="1"/>
-    <col min="6" max="6" width="32" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.7109375" style="1"/>
+    <col min="4" max="4" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="64" style="1" customWidth="1"/>
+    <col min="8" max="8" width="56" style="1" customWidth="1"/>
+    <col min="9" max="9" width="33.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5703125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="35">
+    <row r="2" spans="2:10" ht="35">
       <c r="B2" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="43" customHeight="1">
       <c r="B3" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" ht="63">
+      <c r="I3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="252">
       <c r="B4" s="7">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="231">
+      <c r="E4" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="231">
       <c r="B5" s="7">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" spans="2:6" ht="63">
+        <v>67</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="147">
       <c r="B6" s="7">
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="210">
+      <c r="F6" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="210">
       <c r="B7" s="7">
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>69</v>
+        <v>57</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="2:6" ht="126">
+        <v>68</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="2:10" ht="126">
       <c r="B8" s="7">
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="2:6" ht="315">
+        <v>69</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="2:10" ht="315">
       <c r="B9" s="7">
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="2:6" ht="105">
+        <v>70</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="2:10" ht="105">
       <c r="B10" s="7">
         <v>7</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="2:6" ht="336">
+        <v>75</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="2:10" ht="336">
       <c r="B11" s="7">
         <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="2:6" ht="409.6">
+        <v>76</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="2:10" ht="409.6">
       <c r="B12" s="7">
         <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="2:6" ht="315">
+        <v>78</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="2:10" ht="315">
       <c r="B13" s="7">
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="2:6" ht="84">
+        <v>79</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="2:10" ht="147">
       <c r="B14" s="7">
         <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>29</v>
+        <v>137</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="2:6" ht="63">
+        <v>80</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="2:10" ht="63">
       <c r="B15" s="7">
         <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>78</v>
+        <v>63</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" spans="2:6" ht="147">
+        <v>77</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="2:10" ht="147">
       <c r="B16" s="7">
         <v>13</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>82</v>
+        <v>64</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="2:6" ht="105">
+        <v>81</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="2:10" ht="105">
       <c r="B17" s="7">
         <v>14</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" spans="2:6" ht="21">
+        <v>34</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="2:10" ht="21">
       <c r="B18" s="7">
         <v>15</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="9"/>
-    </row>
-    <row r="19" spans="2:6">
+        <v>37</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="2:10">
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="2:6">
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="2:10">
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="2:6">
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="2:10">
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="2:6">
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="2:10">
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="2:6">
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="2:10">
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="2:6">
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="2:10">
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="2:6">
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="2:10">
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
-    </row>
-    <row r="26" spans="2:6">
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="2:10">
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="2:6">
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="2:10">
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="2:6">
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="2:10">
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
-    </row>
-    <row r="29" spans="2:6">
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="2:10">
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
-    </row>
-    <row r="30" spans="2:6">
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="2:10">
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
-    </row>
-    <row r="31" spans="2:6">
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="2:10">
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
-    </row>
-    <row r="32" spans="2:6">
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="2:10">
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="3:5">
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="3:7">
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
-    </row>
-    <row r="34" spans="3:5">
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="3:7">
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
-    </row>
-    <row r="35" spans="3:5">
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="3:7">
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
-    </row>
-    <row r="36" spans="3:5">
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+    </row>
+    <row r="36" spans="3:7">
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
-    </row>
-    <row r="37" spans="3:5">
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="3:7">
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
-    </row>
-    <row r="38" spans="3:5">
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="3:7">
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
-    </row>
-    <row r="39" spans="3:5">
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+    </row>
+    <row r="39" spans="3:7">
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
-    </row>
-    <row r="40" spans="3:5">
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+    </row>
+    <row r="40" spans="3:7">
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
-    </row>
-    <row r="41" spans="3:5">
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="3:7">
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
-    </row>
-    <row r="42" spans="3:5">
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="3:7">
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
-    </row>
-    <row r="43" spans="3:5">
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" spans="3:7">
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
-    </row>
-    <row r="44" spans="3:5">
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+    </row>
+    <row r="44" spans="3:7">
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
-    </row>
-    <row r="45" spans="3:5">
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" spans="3:7">
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
-    </row>
-    <row r="46" spans="3:5">
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" spans="3:7">
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
-    </row>
-    <row r="47" spans="3:5">
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="3:7">
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
-    </row>
-    <row r="48" spans="3:5">
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" spans="3:7">
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
-    </row>
-    <row r="49" spans="3:5">
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" spans="3:7">
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
-    </row>
-    <row r="50" spans="3:5">
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+    </row>
+    <row r="50" spans="3:7">
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FEA7092-8AC9-5F4F-9BE5-2AE29FF77B96}">
+  <dimension ref="B4:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="66.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:5">
+      <c r="B4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="E5" r:id="rId1" xr:uid="{8E85AFCB-43B3-2847-A450-FECE78C8867E}"/>
+    <hyperlink ref="E6" r:id="rId2" xr:uid="{13D09553-472A-D542-9C96-E99447711BA6}"/>
+    <hyperlink ref="E8" r:id="rId3" xr:uid="{1A70A482-8583-7F40-8F6E-888FEC0C6D46}"/>
+    <hyperlink ref="E7" r:id="rId4" xr:uid="{1F0ED683-47EE-E943-B135-46C858671610}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C4097CC-2241-8A44-9F94-B9D627A35920}">
+  <dimension ref="B2:B28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>